--- a/ITFR.xlsx
+++ b/ITFR.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiehunsi\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="36" windowWidth="24816" windowHeight="12396"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24810" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="ImpliedTFR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -70,15 +75,6 @@
     <t>both sexes</t>
   </si>
   <si>
-    <t>Matt Hauer</t>
-  </si>
-  <si>
-    <t>The University of Georgia</t>
-  </si>
-  <si>
-    <t>hauer@uga.edu</t>
-  </si>
-  <si>
     <t>Hauer M, Baker J, Brown W (2013) Indirect Estimates of Total Fertility Rate Using Child Woman/Ratio: A Comparison with the Bogue-Palmore Method. PLoS ONE 8(6): e67226. doi:10.1371/journal.pone.0067226</t>
   </si>
   <si>
@@ -94,7 +90,16 @@
     <t>cp/5</t>
   </si>
   <si>
-    <t>This is then divided by the number of women of childbearing ages and multiplied by the width of the reproductive interval. In this case, it is 34 (49 - 15)</t>
+    <t>This is then divided by the number of women of childbearing ages and multiplied by the width of the reproductive interval. In this case, it is 35 (ages 15 to 49)</t>
+  </si>
+  <si>
+    <t>Matt Hauer, September 2013 (updated September 2019)</t>
+  </si>
+  <si>
+    <t>Florida State University</t>
+  </si>
+  <si>
+    <t>mehauer@fsu.edu</t>
   </si>
 </sst>
 </file>
@@ -288,6 +293,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -475,7 +483,7 @@
                             <a:solidFill>
                               <a:srgbClr val="000000"/>
                             </a:solidFill>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -487,7 +495,7 @@
                                 <a:solidFill>
                                   <a:srgbClr val="000000"/>
                                 </a:solidFill>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -499,7 +507,7 @@
                                     <a:solidFill>
                                       <a:srgbClr val="000000"/>
                                     </a:solidFill>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:dPr>
@@ -511,7 +519,7 @@
                                         <a:solidFill>
                                           <a:srgbClr val="000000"/>
                                         </a:solidFill>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:fPr>
@@ -523,7 +531,7 @@
                                             <a:solidFill>
                                               <a:srgbClr val="000000"/>
                                             </a:solidFill>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           </a:rPr>
                                         </m:ctrlPr>
                                       </m:sSubPr>
@@ -535,7 +543,7 @@
                                                 <a:solidFill>
                                                   <a:srgbClr val="000000"/>
                                                 </a:solidFill>
-                                                <a:latin typeface="Cambria Math"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               </a:rPr>
                                             </m:ctrlPr>
                                           </m:sPrePr>
@@ -600,7 +608,7 @@
                                     <a:solidFill>
                                       <a:srgbClr val="000000"/>
                                     </a:solidFill>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -612,7 +620,7 @@
                                         <a:solidFill>
                                           <a:srgbClr val="000000"/>
                                         </a:solidFill>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:sPrePr>
@@ -987,7 +995,7 @@
                             <a:solidFill>
                               <a:srgbClr val="000000"/>
                             </a:solidFill>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -999,7 +1007,7 @@
                                 <a:solidFill>
                                   <a:srgbClr val="000000"/>
                                 </a:solidFill>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -1011,7 +1019,7 @@
                                     <a:solidFill>
                                       <a:srgbClr val="000000"/>
                                     </a:solidFill>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:dPr>
@@ -1023,7 +1031,7 @@
                                         <a:solidFill>
                                           <a:srgbClr val="000000"/>
                                         </a:solidFill>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:fPr>
@@ -1035,7 +1043,7 @@
                                             <a:solidFill>
                                               <a:srgbClr val="000000"/>
                                             </a:solidFill>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           </a:rPr>
                                         </m:ctrlPr>
                                       </m:sSubPr>
@@ -1047,7 +1055,7 @@
                                                 <a:solidFill>
                                                   <a:srgbClr val="000000"/>
                                                 </a:solidFill>
-                                                <a:latin typeface="Cambria Math"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               </a:rPr>
                                             </m:ctrlPr>
                                           </m:sPrePr>
@@ -1112,7 +1120,7 @@
                                     <a:solidFill>
                                       <a:srgbClr val="000000"/>
                                     </a:solidFill>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -1124,7 +1132,7 @@
                                         <a:solidFill>
                                           <a:srgbClr val="000000"/>
                                         </a:solidFill>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:sPrePr>
@@ -1367,8 +1375,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>128073</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Rectangle 3"/>
@@ -1497,7 +1505,16 @@
                         </a:solidFill>
                         <a:latin typeface="Cambria Math"/>
                       </a:rPr>
-                      <m:t>34</m:t>
+                      <m:t>3</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>5</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" i="1">
@@ -1517,7 +1534,7 @@
                             <a:solidFill>
                               <a:srgbClr val="000000"/>
                             </a:solidFill>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -1529,7 +1546,7 @@
                                 <a:solidFill>
                                   <a:srgbClr val="000000"/>
                                 </a:solidFill>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -1541,7 +1558,7 @@
                                     <a:solidFill>
                                       <a:srgbClr val="000000"/>
                                     </a:solidFill>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:dPr>
@@ -1553,7 +1570,7 @@
                                         <a:solidFill>
                                           <a:srgbClr val="000000"/>
                                         </a:solidFill>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:fPr>
@@ -1565,7 +1582,7 @@
                                             <a:solidFill>
                                               <a:srgbClr val="000000"/>
                                             </a:solidFill>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           </a:rPr>
                                         </m:ctrlPr>
                                       </m:sSubPr>
@@ -1577,7 +1594,7 @@
                                                 <a:solidFill>
                                                   <a:srgbClr val="000000"/>
                                                 </a:solidFill>
-                                                <a:latin typeface="Cambria Math"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               </a:rPr>
                                             </m:ctrlPr>
                                           </m:sPrePr>
@@ -1642,7 +1659,7 @@
                                     <a:solidFill>
                                       <a:srgbClr val="000000"/>
                                     </a:solidFill>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -1654,7 +1671,7 @@
                                         <a:solidFill>
                                           <a:srgbClr val="000000"/>
                                         </a:solidFill>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       </a:rPr>
                                     </m:ctrlPr>
                                   </m:sPrePr>
@@ -1711,7 +1728,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Rectangle 3"/>
@@ -1834,7 +1851,16 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>34</a:t>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>5</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -1843,16 +1869,43 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>∗ [((〖(_</a:t>
+                <a:t>∗ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>[((〖(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>4^)</a:t>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -1861,7 +1914,16 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑃〗_</a:t>
+                <a:t>𝑃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1870,7 +1932,34 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>0/5))/〖(_</a:t>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>))/〖(_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -1879,7 +1968,52 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑛^)𝑊〗_𝑥 ]</a:t>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑊</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="2400">
                 <a:solidFill>
@@ -1939,7 +2073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1974,7 +2108,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2187,34 +2321,34 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="12" width="11.109375" customWidth="1"/>
+    <col min="6" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2225,7 +2359,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -2237,13 +2371,13 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="5"/>
       <c r="C7" s="26"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2389,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
@@ -2268,7 +2402,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>3</v>
       </c>
@@ -2280,7 +2414,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2426,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
@@ -2304,7 +2438,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>6</v>
       </c>
@@ -2317,7 +2451,7 @@
       <c r="E13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2464,7 @@
       <c r="E14" s="9"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
@@ -2341,66 +2475,66 @@
       <c r="E15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="24">
-        <f>((C6/5)/C15)*34</f>
-        <v>5.3862273797324605</v>
+        <f>((C6/5)/C15)*35</f>
+        <v>5.5446458320775331</v>
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="22"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="28">
         <f>C6/5</f>
         <v>2431.0063999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="13"/>
       <c r="C29" s="28">
@@ -2408,11 +2542,11 @@
         <v>0.15841845234507237</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="C31" s="16"/>
       <c r="D31" s="8"/>
@@ -2421,22 +2555,22 @@
       <c r="J31" s="18"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="9"/>
       <c r="C33" s="30">
-        <f>C29*34</f>
-        <v>5.3862273797324605</v>
+        <f>C29*35</f>
+        <v>5.5446458320775331</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -2444,45 +2578,42 @@
       <c r="E34" s="21"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F35" s="15"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A42" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>